--- a/Data/dictionary.xlsx
+++ b/Data/dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adel\data_science_misk\Final Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0CB957-3964-4860-8D3A-F49DF17C8DE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A50147-B209-40D9-A1C4-50ED15093FD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9FD746C2-0083-43D0-A9EE-DEA8313EFC66}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="100">
   <si>
     <t>Variable</t>
   </si>
@@ -238,13 +238,109 @@
   </si>
   <si>
     <t>final grade (numeric: from 0 to 20, output target)</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>family_size</t>
+  </si>
+  <si>
+    <t>parents_status</t>
+  </si>
+  <si>
+    <t>mother_education</t>
+  </si>
+  <si>
+    <t>father_education</t>
+  </si>
+  <si>
+    <t>mother_job</t>
+  </si>
+  <si>
+    <t>father_job</t>
+  </si>
+  <si>
+    <t>commute_time</t>
+  </si>
+  <si>
+    <t>study_time</t>
+  </si>
+  <si>
+    <t>school_support</t>
+  </si>
+  <si>
+    <t>family_support</t>
+  </si>
+  <si>
+    <t>paid_classes</t>
+  </si>
+  <si>
+    <t>desire_higher_edu</t>
+  </si>
+  <si>
+    <t>family_quality</t>
+  </si>
+  <si>
+    <t>free_time</t>
+  </si>
+  <si>
+    <t>go_out</t>
+  </si>
+  <si>
+    <t>weekday_alcohol_usage</t>
+  </si>
+  <si>
+    <t>weekend_alcohol_usage</t>
+  </si>
+  <si>
+    <t>period1_score</t>
+  </si>
+  <si>
+    <t>period2_score</t>
+  </si>
+  <si>
+    <t>final_score</t>
+  </si>
+  <si>
+    <t>New Name</t>
+  </si>
+  <si>
+    <t>Encoding</t>
+  </si>
+  <si>
+    <t>{"MS":1,"GP":2}</t>
+  </si>
+  <si>
+    <t>{"M":1,"F":0}</t>
+  </si>
+  <si>
+    <t>{"GT3":1,"LE3":0}</t>
+  </si>
+  <si>
+    <t>{"U":1,"R":0}</t>
+  </si>
+  <si>
+    <t>{"T":1,"A":0}</t>
+  </si>
+  <si>
+    <t>{"yes":1,"no":0}</t>
+  </si>
+  <si>
+    <t>{'services':1, 'at_home':2, 'teacher':3, 'health':4, 'other':5}</t>
+  </si>
+  <si>
+    <t>{'course':1, 'home':2, 'reputation':3, 'other':4}</t>
+  </si>
+  <si>
+    <t>{'mother':1, 'father':2, 'other':3}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +369,12 @@
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -316,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -328,6 +430,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,287 +747,448 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3745B0-64C6-43A9-83FD-B0D072EC7B3F}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="135.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="135.21875" customWidth="1"/>
+    <col min="4" max="4" width="45" customWidth="1"/>
+    <col min="5" max="5" width="29.77734375" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1" ht="16.8" thickBot="1">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="16.8" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="36">
+      <c r="D1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1"/>
+    </row>
+    <row r="2" spans="1:6" ht="18">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="18">
+      <c r="D2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="18">
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="36">
+    <row r="5" spans="1:6" ht="18">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="36">
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="36">
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="54">
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="36">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="54">
+    <row r="9" spans="1:6" ht="36">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="54">
+    <row r="10" spans="1:6" ht="36">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="54">
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="36">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="36">
+      <c r="D11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="36">
+      <c r="D12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="36">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="36">
+      <c r="D13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="36">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="36">
+    <row r="15" spans="1:6" ht="36">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="36">
+    <row r="16" spans="1:6" ht="18">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="36">
+    <row r="17" spans="1:4" ht="36">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="18">
+      <c r="D17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="18">
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="18">
+      <c r="D19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="36">
+      <c r="D20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="36">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="18">
+      <c r="D21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="18">
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="36">
+      <c r="D23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="36">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="18">
+      <c r="D24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="18">
+    <row r="26" spans="1:4" ht="18">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="18">
+    <row r="27" spans="1:4" ht="18">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="18">
+    <row r="28" spans="1:4" ht="18">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18">
+    <row r="29" spans="1:4" ht="18">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="18">
+    <row r="30" spans="1:4" ht="18">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="36">
+    <row r="31" spans="1:4" ht="36">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="18">
+    <row r="32" spans="1:4" ht="18">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18">
+    <row r="33" spans="1:3" ht="18">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18">
+    <row r="34" spans="1:3" ht="18">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>67</v>
       </c>
     </row>

--- a/Data/dictionary.xlsx
+++ b/Data/dictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adel\data_science_misk\Final Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A50147-B209-40D9-A1C4-50ED15093FD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890FF8CD-FADE-4682-BB2A-69458A4BA362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9FD746C2-0083-43D0-A9EE-DEA8313EFC66}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="103">
   <si>
     <t>Variable</t>
   </si>
@@ -334,6 +334,15 @@
   </si>
   <si>
     <t>{'mother':1, 'father':2, 'other':3}</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">course name </t>
+  </si>
+  <si>
+    <t>{Math,por}</t>
   </si>
 </sst>
 </file>
@@ -747,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3745B0-64C6-43A9-83FD-B0D072EC7B3F}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1170,7 +1179,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18">
+    <row r="33" spans="1:4" ht="18">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -1181,7 +1190,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18">
+    <row r="34" spans="1:4" ht="18">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -1190,6 +1199,20 @@
       </c>
       <c r="C34" s="1" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18">
+      <c r="A35" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
